--- a/Config/DataTable/SkillAttribute.xlsx
+++ b/Config/DataTable/SkillAttribute.xlsx
@@ -1,85 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATKMin</t>
+  </si>
+  <si>
+    <t>ATKMax</t>
+  </si>
+  <si>
+    <t>CRTMin</t>
+  </si>
+  <si>
+    <t>CRTMax</t>
+  </si>
+  <si>
+    <t>CRTValue</t>
+  </si>
+  <si>
+    <t>MGKMin</t>
+  </si>
+  <si>
+    <t>MGKMax</t>
+  </si>
+  <si>
+    <t>MCRMin</t>
+  </si>
+  <si>
+    <t>MCRMax</t>
+  </si>
+  <si>
+    <t>MCRValue</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升下限</t>
+  </si>
+  <si>
+    <t>攻击力提升上限</t>
   </si>
   <si>
     <t>暴击率提升下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提升下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提升上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击率提升上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击值提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害提升下限</t>
+  </si>
+  <si>
+    <t>魔法伤害提升上限</t>
   </si>
   <si>
     <t>魔暴率提升下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔暴率提升上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔法暴击值提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_1</t>
   </si>
   <si>
     <t>Skill10000_LV_2</t>
   </si>
   <si>
-    <t>Skill10000_LV_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill10000_LV_3</t>
   </si>
   <si>
@@ -147,93 +167,366 @@
   </si>
   <si>
     <t>Skill10004_LV_5</t>
-  </si>
-  <si>
-    <t>魔法伤害提升下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害提升上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRTValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCRValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATKMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRTMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRTMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGKMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGKMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCRMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCRMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,30 +534,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -313,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -522,24 +1101,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -555,7 +1129,7 @@
     <col min="13" max="13" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -563,80 +1137,86 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -674,10 +1254,13 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -715,10 +1298,13 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -756,10 +1342,13 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -797,10 +1386,13 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -838,10 +1430,13 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -879,10 +1474,13 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -920,10 +1518,13 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -961,10 +1562,13 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1002,10 +1606,13 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -1043,10 +1650,13 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -1084,10 +1694,13 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1125,10 +1738,13 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1166,10 +1782,13 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1207,10 +1826,13 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -1248,10 +1870,13 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -1289,10 +1914,13 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -1330,10 +1958,13 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -1371,10 +2002,13 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1412,10 +2046,13 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -1453,10 +2090,13 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -1494,10 +2134,13 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -1535,10 +2178,13 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -1576,10 +2222,13 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -1617,10 +2266,13 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>100</v>
@@ -1658,10 +2310,13 @@
       <c r="M27">
         <v>0</v>
       </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>